--- a/medicine/Enfance/Igwal/Igwal.xlsx
+++ b/medicine/Enfance/Igwal/Igwal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Igwal, de son vrai nom André Igual, né le 11 mai 1950 à Toulon, et mort le 25 juin 2000 aux Barils, est un auteur de bande dessinée et écrivain de littérature d'enfance et de jeunesse français .
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André Igual naît le 11 mai 1950 à Toulon.
 En 1989, il écrit des comptines illustrées par Jean-Louis Lejeune, l'ouvrage intitulé Pincettes est publié dans la collection « Maboule » aux éditions grenobloises Glénat.
-Il meurt le 25 juin 2000 aux Barils à l'âge de 50 ans[1],[2]
+Il meurt le 25 juin 2000 aux Barils à l'âge de 50 ans,
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pincettes, illustré par Jean-Louis Lejeune, Glénat, coll. « Maboule », 1989 (OCLC 462981379)</t>
         </is>
